--- a/results/python/requests/requests.xlsx
+++ b/results/python/requests/requests.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamc\Desktop\results\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/python/requests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E20811-EDF3-40BD-8B1A-A5D2FE93468C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08E6321-840F-AE47-876E-92F714AE838C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="12105"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="23980" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="requests" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1849,7 +1857,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2685,16 +2693,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2729,7 +2737,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2764,15 +2772,15 @@
         <v>10.785831960461286</v>
       </c>
       <c r="N2" s="2">
-        <f>_xlfn.STDEV.P(C2:C608)</f>
-        <v>12.834144003961915</v>
+        <f>_xlfn.STDEV.S(C2:C608)</f>
+        <v>12.844728866795323</v>
       </c>
       <c r="O2" s="2">
         <f>N2/SQRT(COUNT(C2:C608))</f>
-        <v>0.52092183578955342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.52135146211890249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2807,15 +2815,15 @@
         <v>43.184514003294893</v>
       </c>
       <c r="N3" s="2">
-        <f>_xlfn.STDEV.P(D2:D608)</f>
-        <v>18.925908361314516</v>
+        <f>_xlfn.STDEV.S(D2:D608)</f>
+        <v>18.941517360554386</v>
       </c>
       <c r="O3" s="2">
         <f>N3/SQRT(COUNT(D2:D608))</f>
-        <v>0.76817892369895147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.76881247343443526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2850,15 +2858,15 @@
         <v>8.1993410214168048</v>
       </c>
       <c r="N4" s="2">
-        <f>_xlfn.STDEV.P(E2:E608)</f>
-        <v>3.2730942834696939</v>
+        <f>_xlfn.STDEV.S(E2:E608)</f>
+        <v>3.2757937431314099</v>
       </c>
       <c r="O4" s="2">
         <f>N4/SQRT(COUNT(E2:E608))</f>
-        <v>0.13285079880130551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.1329603664890443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <f>_xlfn.STDEV.P(F2:F608)</f>
+        <f>_xlfn.STDEV.S(F2:F608)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
@@ -2901,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2921,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2941,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2981,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3001,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3021,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3041,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3061,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3081,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3121,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3141,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3161,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3181,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3201,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3221,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3241,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3261,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3281,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3301,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3321,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3341,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3361,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3381,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3401,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3421,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3461,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3481,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -3501,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -3521,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3541,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -3561,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -3581,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -3601,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -3621,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -3641,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -3661,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -3681,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -3721,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -3741,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -3781,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -3801,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -3821,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -3841,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -3861,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -3901,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -3921,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -3941,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -3961,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -3981,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -4001,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -4021,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -4041,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -4061,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -4081,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -4101,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -4121,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -4141,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -4161,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -4181,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -4201,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -4221,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -4241,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -4261,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -4321,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -4341,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -4361,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -4381,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -4421,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -4441,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -4461,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -4481,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -4501,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -4521,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -4561,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -4581,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -4601,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -4621,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -4641,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -4661,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -4681,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -4701,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4721,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4741,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -4761,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -4781,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -4801,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -4821,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -4841,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -4861,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -4881,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -4901,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -4921,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4941,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -4961,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -4981,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -5001,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -5021,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -5041,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -5061,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>106</v>
       </c>
@@ -5081,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -5101,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -5121,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -5141,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -5161,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -5181,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -5201,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -5221,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -5241,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -5261,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -5281,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -5301,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -5321,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -5341,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -5361,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -5381,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -5401,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -5421,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -5441,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -5461,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -5481,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -5501,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>126</v>
       </c>
@@ -5521,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -5541,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -5561,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>126</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -5601,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>126</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>126</v>
       </c>
@@ -5641,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>126</v>
       </c>
@@ -5661,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>126</v>
       </c>
@@ -5681,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>126</v>
       </c>
@@ -5701,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>126</v>
       </c>
@@ -5721,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>126</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>126</v>
       </c>
@@ -5761,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>126</v>
       </c>
@@ -5781,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>126</v>
       </c>
@@ -5801,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>126</v>
       </c>
@@ -5821,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>126</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>126</v>
       </c>
@@ -5861,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>126</v>
       </c>
@@ -5881,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>126</v>
       </c>
@@ -5901,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>126</v>
       </c>
@@ -5921,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>126</v>
       </c>
@@ -5941,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>126</v>
       </c>
@@ -5961,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>126</v>
       </c>
@@ -5981,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>126</v>
       </c>
@@ -6001,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>126</v>
       </c>
@@ -6021,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>126</v>
       </c>
@@ -6041,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>126</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>126</v>
       </c>
@@ -6081,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>126</v>
       </c>
@@ -6101,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>126</v>
       </c>
@@ -6121,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>126</v>
       </c>
@@ -6141,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>126</v>
       </c>
@@ -6161,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>126</v>
       </c>
@@ -6181,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>126</v>
       </c>
@@ -6201,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>126</v>
       </c>
@@ -6221,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>126</v>
       </c>
@@ -6241,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>126</v>
       </c>
@@ -6261,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>126</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>126</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>126</v>
       </c>
@@ -6321,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -6341,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>126</v>
       </c>
@@ -6361,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>126</v>
       </c>
@@ -6381,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>126</v>
       </c>
@@ -6401,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>126</v>
       </c>
@@ -6421,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>126</v>
       </c>
@@ -6441,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>126</v>
       </c>
@@ -6461,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>126</v>
       </c>
@@ -6481,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>126</v>
       </c>
@@ -6501,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>126</v>
       </c>
@@ -6521,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>126</v>
       </c>
@@ -6541,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -6561,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -6581,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>126</v>
       </c>
@@ -6601,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>126</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>126</v>
       </c>
@@ -6641,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>126</v>
       </c>
@@ -6661,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>126</v>
       </c>
@@ -6681,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>126</v>
       </c>
@@ -6701,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>126</v>
       </c>
@@ -6721,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>126</v>
       </c>
@@ -6741,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>126</v>
       </c>
@@ -6761,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>126</v>
       </c>
@@ -6781,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>126</v>
       </c>
@@ -6801,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>126</v>
       </c>
@@ -6821,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>126</v>
       </c>
@@ -6841,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>126</v>
       </c>
@@ -6861,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>126</v>
       </c>
@@ -6881,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>126</v>
       </c>
@@ -6901,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>126</v>
       </c>
@@ -6921,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>126</v>
       </c>
@@ -6941,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>126</v>
       </c>
@@ -6961,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>126</v>
       </c>
@@ -6981,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>126</v>
       </c>
@@ -7001,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>126</v>
       </c>
@@ -7021,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>126</v>
       </c>
@@ -7041,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>126</v>
       </c>
@@ -7061,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>126</v>
       </c>
@@ -7081,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>126</v>
       </c>
@@ -7101,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>126</v>
       </c>
@@ -7121,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>126</v>
       </c>
@@ -7141,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>126</v>
       </c>
@@ -7161,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>126</v>
       </c>
@@ -7181,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>126</v>
       </c>
@@ -7201,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>126</v>
       </c>
@@ -7221,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>126</v>
       </c>
@@ -7241,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>126</v>
       </c>
@@ -7261,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>126</v>
       </c>
@@ -7281,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>126</v>
       </c>
@@ -7301,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>126</v>
       </c>
@@ -7321,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>126</v>
       </c>
@@ -7341,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>126</v>
       </c>
@@ -7361,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>126</v>
       </c>
@@ -7381,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>126</v>
       </c>
@@ -7401,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>126</v>
       </c>
@@ -7421,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>126</v>
       </c>
@@ -7441,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>126</v>
       </c>
@@ -7461,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>126</v>
       </c>
@@ -7481,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>126</v>
       </c>
@@ -7501,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>126</v>
       </c>
@@ -7521,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>126</v>
       </c>
@@ -7541,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>126</v>
       </c>
@@ -7561,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>126</v>
       </c>
@@ -7581,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>126</v>
       </c>
@@ -7601,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>126</v>
       </c>
@@ -7621,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -7641,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>126</v>
       </c>
@@ -7661,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>126</v>
       </c>
@@ -7681,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>126</v>
       </c>
@@ -7701,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>126</v>
       </c>
@@ -7721,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>126</v>
       </c>
@@ -7741,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>126</v>
       </c>
@@ -7761,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>126</v>
       </c>
@@ -7781,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>126</v>
       </c>
@@ -7801,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>126</v>
       </c>
@@ -7821,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>126</v>
       </c>
@@ -7841,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>126</v>
       </c>
@@ -7861,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>126</v>
       </c>
@@ -7881,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>126</v>
       </c>
@@ -7901,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>126</v>
       </c>
@@ -7921,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>126</v>
       </c>
@@ -7941,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>126</v>
       </c>
@@ -7961,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>126</v>
       </c>
@@ -7981,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>126</v>
       </c>
@@ -8001,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>126</v>
       </c>
@@ -8021,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>126</v>
       </c>
@@ -8041,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>126</v>
       </c>
@@ -8061,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>126</v>
       </c>
@@ -8081,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>126</v>
       </c>
@@ -8101,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>126</v>
       </c>
@@ -8121,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>126</v>
       </c>
@@ -8141,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>126</v>
       </c>
@@ -8161,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>126</v>
       </c>
@@ -8181,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>126</v>
       </c>
@@ -8201,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>126</v>
       </c>
@@ -8221,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>126</v>
       </c>
@@ -8241,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>126</v>
       </c>
@@ -8261,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>126</v>
       </c>
@@ -8281,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>126</v>
       </c>
@@ -8301,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>126</v>
       </c>
@@ -8321,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>126</v>
       </c>
@@ -8341,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>126</v>
       </c>
@@ -8361,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>126</v>
       </c>
@@ -8381,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>126</v>
       </c>
@@ -8401,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>126</v>
       </c>
@@ -8421,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>126</v>
       </c>
@@ -8441,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>126</v>
       </c>
@@ -8461,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>126</v>
       </c>
@@ -8481,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>126</v>
       </c>
@@ -8501,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>126</v>
       </c>
@@ -8521,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>126</v>
       </c>
@@ -8541,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>126</v>
       </c>
@@ -8561,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>126</v>
       </c>
@@ -8581,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>126</v>
       </c>
@@ -8601,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>126</v>
       </c>
@@ -8621,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>126</v>
       </c>
@@ -8641,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>126</v>
       </c>
@@ -8661,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>126</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>126</v>
       </c>
@@ -8701,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>126</v>
       </c>
@@ -8721,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>126</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>126</v>
       </c>
@@ -8761,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>126</v>
       </c>
@@ -8781,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>126</v>
       </c>
@@ -8801,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>126</v>
       </c>
@@ -8821,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>126</v>
       </c>
@@ -8841,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>126</v>
       </c>
@@ -8861,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>126</v>
       </c>
@@ -8881,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>126</v>
       </c>
@@ -8901,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>126</v>
       </c>
@@ -8921,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>126</v>
       </c>
@@ -8941,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>126</v>
       </c>
@@ -8961,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>126</v>
       </c>
@@ -8981,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>126</v>
       </c>
@@ -9001,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>126</v>
       </c>
@@ -9021,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>126</v>
       </c>
@@ -9041,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>126</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>126</v>
       </c>
@@ -9081,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>126</v>
       </c>
@@ -9101,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>126</v>
       </c>
@@ -9121,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>126</v>
       </c>
@@ -9141,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>126</v>
       </c>
@@ -9161,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>126</v>
       </c>
@@ -9181,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>126</v>
       </c>
@@ -9201,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>126</v>
       </c>
@@ -9221,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>126</v>
       </c>
@@ -9241,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>126</v>
       </c>
@@ -9261,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>126</v>
       </c>
@@ -9281,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>126</v>
       </c>
@@ -9301,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>126</v>
       </c>
@@ -9321,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>126</v>
       </c>
@@ -9341,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>126</v>
       </c>
@@ -9361,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>126</v>
       </c>
@@ -9381,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>126</v>
       </c>
@@ -9401,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>126</v>
       </c>
@@ -9421,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>126</v>
       </c>
@@ -9441,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>126</v>
       </c>
@@ -9461,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>126</v>
       </c>
@@ -9481,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>126</v>
       </c>
@@ -9501,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>126</v>
       </c>
@@ -9521,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>126</v>
       </c>
@@ -9541,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>126</v>
       </c>
@@ -9561,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>126</v>
       </c>
@@ -9581,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>126</v>
       </c>
@@ -9601,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>126</v>
       </c>
@@ -9621,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>126</v>
       </c>
@@ -9641,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>126</v>
       </c>
@@ -9661,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>126</v>
       </c>
@@ -9681,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>126</v>
       </c>
@@ -9701,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>126</v>
       </c>
@@ -9721,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>126</v>
       </c>
@@ -9741,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>126</v>
       </c>
@@ -9761,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>126</v>
       </c>
@@ -9781,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>126</v>
       </c>
@@ -9801,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>126</v>
       </c>
@@ -9821,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>126</v>
       </c>
@@ -9841,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>126</v>
       </c>
@@ -9861,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>126</v>
       </c>
@@ -9881,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>126</v>
       </c>
@@ -9901,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>126</v>
       </c>
@@ -9921,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>126</v>
       </c>
@@ -9941,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>126</v>
       </c>
@@ -9961,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>126</v>
       </c>
@@ -9981,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>126</v>
       </c>
@@ -10001,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>126</v>
       </c>
@@ -10021,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>126</v>
       </c>
@@ -10041,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>367</v>
       </c>
@@ -10061,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>369</v>
       </c>
@@ -10081,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>369</v>
       </c>
@@ -10101,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>369</v>
       </c>
@@ -10121,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>373</v>
       </c>
@@ -10141,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>373</v>
       </c>
@@ -10161,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>373</v>
       </c>
@@ -10181,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -10201,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>373</v>
       </c>
@@ -10221,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -10241,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -10261,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -10281,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -10301,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>373</v>
       </c>
@@ -10321,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>373</v>
       </c>
@@ -10341,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>373</v>
       </c>
@@ -10361,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>386</v>
       </c>
@@ -10381,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>386</v>
       </c>
@@ -10401,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>386</v>
       </c>
@@ -10421,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>386</v>
       </c>
@@ -10441,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>386</v>
       </c>
@@ -10461,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>386</v>
       </c>
@@ -10481,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -10501,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -10521,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -10541,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -10561,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>386</v>
       </c>
@@ -10581,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>386</v>
       </c>
@@ -10601,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>386</v>
       </c>
@@ -10621,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>386</v>
       </c>
@@ -10641,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>399</v>
       </c>
@@ -10661,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>399</v>
       </c>
@@ -10681,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>399</v>
       </c>
@@ -10701,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -10721,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>399</v>
       </c>
@@ -10741,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -10761,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -10781,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -10801,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -10821,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>399</v>
       </c>
@@ -10841,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>399</v>
       </c>
@@ -10861,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>399</v>
       </c>
@@ -10881,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>399</v>
       </c>
@@ -10901,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>399</v>
       </c>
@@ -10921,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>399</v>
       </c>
@@ -10941,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>399</v>
       </c>
@@ -10961,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>399</v>
       </c>
@@ -10981,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>399</v>
       </c>
@@ -11001,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>399</v>
       </c>
@@ -11021,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>412</v>
       </c>
@@ -11041,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -11061,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>415</v>
       </c>
@@ -11081,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>415</v>
       </c>
@@ -11101,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -11121,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -11141,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>415</v>
       </c>
@@ -11161,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>415</v>
       </c>
@@ -11181,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>415</v>
       </c>
@@ -11201,7 +11209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>415</v>
       </c>
@@ -11221,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>415</v>
       </c>
@@ -11241,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>415</v>
       </c>
@@ -11261,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>415</v>
       </c>
@@ -11281,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>415</v>
       </c>
@@ -11301,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>415</v>
       </c>
@@ -11321,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>415</v>
       </c>
@@ -11341,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>415</v>
       </c>
@@ -11361,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>415</v>
       </c>
@@ -11381,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>415</v>
       </c>
@@ -11401,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>415</v>
       </c>
@@ -11421,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>415</v>
       </c>
@@ -11441,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>415</v>
       </c>
@@ -11461,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>415</v>
       </c>
@@ -11481,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>415</v>
       </c>
@@ -11501,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>415</v>
       </c>
@@ -11521,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>415</v>
       </c>
@@ -11541,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>415</v>
       </c>
@@ -11561,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>415</v>
       </c>
@@ -11581,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>415</v>
       </c>
@@ -11601,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>415</v>
       </c>
@@ -11621,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>415</v>
       </c>
@@ -11641,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>415</v>
       </c>
@@ -11661,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>415</v>
       </c>
@@ -11681,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>415</v>
       </c>
@@ -11701,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>415</v>
       </c>
@@ -11721,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>415</v>
       </c>
@@ -11741,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>415</v>
       </c>
@@ -11761,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>415</v>
       </c>
@@ -11781,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>415</v>
       </c>
@@ -11801,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>415</v>
       </c>
@@ -11821,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>415</v>
       </c>
@@ -11841,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>415</v>
       </c>
@@ -11861,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>415</v>
       </c>
@@ -11881,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>415</v>
       </c>
@@ -11901,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>415</v>
       </c>
@@ -11921,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>415</v>
       </c>
@@ -11941,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>453</v>
       </c>
@@ -11961,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>453</v>
       </c>
@@ -11981,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>456</v>
       </c>
@@ -12001,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>456</v>
       </c>
@@ -12021,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>456</v>
       </c>
@@ -12041,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>456</v>
       </c>
@@ -12061,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>456</v>
       </c>
@@ -12081,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>456</v>
       </c>
@@ -12101,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>456</v>
       </c>
@@ -12121,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>456</v>
       </c>
@@ -12141,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>456</v>
       </c>
@@ -12161,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>456</v>
       </c>
@@ -12181,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>456</v>
       </c>
@@ -12201,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>456</v>
       </c>
@@ -12221,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>456</v>
       </c>
@@ -12241,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>456</v>
       </c>
@@ -12261,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>456</v>
       </c>
@@ -12281,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>456</v>
       </c>
@@ -12301,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>456</v>
       </c>
@@ -12321,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>456</v>
       </c>
@@ -12341,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>456</v>
       </c>
@@ -12361,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>456</v>
       </c>
@@ -12381,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>456</v>
       </c>
@@ -12401,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>456</v>
       </c>
@@ -12421,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>456</v>
       </c>
@@ -12441,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>456</v>
       </c>
@@ -12461,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>456</v>
       </c>
@@ -12481,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>456</v>
       </c>
@@ -12501,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>456</v>
       </c>
@@ -12521,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>456</v>
       </c>
@@ -12541,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>456</v>
       </c>
@@ -12561,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>456</v>
       </c>
@@ -12581,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>456</v>
       </c>
@@ -12601,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>456</v>
       </c>
@@ -12621,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>456</v>
       </c>
@@ -12641,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>456</v>
       </c>
@@ -12661,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>456</v>
       </c>
@@ -12681,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>456</v>
       </c>
@@ -12701,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>456</v>
       </c>
@@ -12721,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>456</v>
       </c>
@@ -12741,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>456</v>
       </c>
@@ -12761,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>456</v>
       </c>
@@ -12781,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>456</v>
       </c>
@@ -12801,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>456</v>
       </c>
@@ -12821,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>456</v>
       </c>
@@ -12841,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>456</v>
       </c>
@@ -12861,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>456</v>
       </c>
@@ -12881,7 +12889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>456</v>
       </c>
@@ -12901,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>456</v>
       </c>
@@ -12921,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>456</v>
       </c>
@@ -12941,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>456</v>
       </c>
@@ -12961,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>503</v>
       </c>
@@ -12981,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>505</v>
       </c>
@@ -13001,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>505</v>
       </c>
@@ -13021,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>505</v>
       </c>
@@ -13041,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>505</v>
       </c>
@@ -13061,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>505</v>
       </c>
@@ -13081,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>505</v>
       </c>
@@ -13101,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>505</v>
       </c>
@@ -13121,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>505</v>
       </c>
@@ -13141,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>514</v>
       </c>
@@ -13161,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>514</v>
       </c>
@@ -13181,7 +13189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>514</v>
       </c>
@@ -13201,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>518</v>
       </c>
@@ -13221,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>518</v>
       </c>
@@ -13241,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>518</v>
       </c>
@@ -13261,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>518</v>
       </c>
@@ -13281,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>518</v>
       </c>
@@ -13301,7 +13309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>518</v>
       </c>
@@ -13321,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>518</v>
       </c>
@@ -13341,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>518</v>
       </c>
@@ -13361,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>518</v>
       </c>
@@ -13381,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>518</v>
       </c>
@@ -13401,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>518</v>
       </c>
@@ -13421,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>518</v>
       </c>
@@ -13441,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>518</v>
       </c>
@@ -13461,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>518</v>
       </c>
@@ -13481,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>518</v>
       </c>
@@ -13501,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>518</v>
       </c>
@@ -13521,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>518</v>
       </c>
@@ -13541,7 +13549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>518</v>
       </c>
@@ -13561,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>518</v>
       </c>
@@ -13581,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>518</v>
       </c>
@@ -13601,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>518</v>
       </c>
@@ -13621,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>518</v>
       </c>
@@ -13641,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>518</v>
       </c>
@@ -13661,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>518</v>
       </c>
@@ -13681,7 +13689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>518</v>
       </c>
@@ -13701,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>518</v>
       </c>
@@ -13721,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>518</v>
       </c>
@@ -13741,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>518</v>
       </c>
@@ -13761,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>541</v>
       </c>
@@ -13781,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>541</v>
       </c>
@@ -13801,7 +13809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>544</v>
       </c>
@@ -13821,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>544</v>
       </c>
@@ -13841,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>544</v>
       </c>
@@ -13861,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>544</v>
       </c>
@@ -13881,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>544</v>
       </c>
@@ -13901,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>544</v>
       </c>
@@ -13921,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>544</v>
       </c>
@@ -13941,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>544</v>
       </c>
@@ -13961,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>544</v>
       </c>
@@ -13981,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>544</v>
       </c>
@@ -14001,7 +14009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>544</v>
       </c>
@@ -14021,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>544</v>
       </c>
@@ -14041,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>544</v>
       </c>
@@ -14061,7 +14069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>544</v>
       </c>
@@ -14081,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>544</v>
       </c>
@@ -14101,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>544</v>
       </c>
@@ -14121,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>544</v>
       </c>
@@ -14141,7 +14149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>556</v>
       </c>
@@ -14161,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>556</v>
       </c>
@@ -14181,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>556</v>
       </c>
@@ -14201,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>556</v>
       </c>
@@ -14221,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>556</v>
       </c>
@@ -14241,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>556</v>
       </c>
@@ -14261,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>556</v>
       </c>
@@ -14281,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>556</v>
       </c>
@@ -14301,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>556</v>
       </c>
@@ -14321,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>556</v>
       </c>
@@ -14341,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>556</v>
       </c>
@@ -14361,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>556</v>
       </c>
@@ -14381,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>556</v>
       </c>
@@ -14401,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>556</v>
       </c>
@@ -14421,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>556</v>
       </c>
@@ -14441,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>556</v>
       </c>
@@ -14461,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>556</v>
       </c>
@@ -14481,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>556</v>
       </c>
@@ -14501,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>556</v>
       </c>
@@ -14521,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>556</v>
       </c>
@@ -14541,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>556</v>
       </c>
@@ -14561,7 +14569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>556</v>
       </c>
@@ -14581,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>556</v>
       </c>
@@ -14601,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>556</v>
       </c>
@@ -14621,7 +14629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>556</v>
       </c>
@@ -14641,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>556</v>
       </c>
@@ -14661,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>556</v>
       </c>
@@ -14681,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>556</v>
       </c>
@@ -14701,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>556</v>
       </c>
@@ -14721,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>556</v>
       </c>
@@ -14741,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>556</v>
       </c>
@@ -14761,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>556</v>
       </c>
@@ -14781,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>556</v>
       </c>
@@ -14801,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>556</v>
       </c>
@@ -14821,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>556</v>
       </c>
@@ -14841,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>556</v>
       </c>
@@ -14861,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>556</v>
       </c>
@@ -14881,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>556</v>
       </c>
@@ -14901,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>556</v>
       </c>
@@ -14921,7 +14929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>596</v>
       </c>
@@ -14941,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>596</v>
       </c>
